--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2362224.264832878</v>
+        <v>2466403.89928395</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>36.70430973624698</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>274.7944255145775</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>174.6413650862698</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>144.3713143100411</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>256.2422694642172</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.5538096770342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>256.824194384255</v>
       </c>
       <c r="D8" t="n">
-        <v>93.52676208877527</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>120.6353666620236</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>9.962239308310091</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>119.6760079449696</v>
       </c>
       <c r="G13" t="n">
-        <v>40.53421095546916</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.05158559392623</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>71.76895293959859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>38.95525409458221</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>219.4517041866526</v>
       </c>
       <c r="X22" t="n">
-        <v>182.4443919360872</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701402</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>105.1820732698676</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>58.47559664514586</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>252.069646641626</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2857567969035</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>74.41917683133158</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>143.2091541404069</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>242.4603833710106</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>114.2935157990527</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>125.2193560244677</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>18.16423677622371</v>
+        <v>142.3046100066275</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.3373146097493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223196</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>883.8708262827843</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>525.6051276760338</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287318</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.468527222536</v>
+        <v>2005.372840826905</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5323442946291</v>
+        <v>2005.372840826905</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>1855.256201414569</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>1855.256201414569</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>2946.672497492343</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>2691.988009286456</v>
       </c>
       <c r="W4" t="n">
-        <v>1078.909571196306</v>
+        <v>2402.570839249495</v>
       </c>
       <c r="X4" t="n">
-        <v>1078.909571196306</v>
+        <v>2402.570839249495</v>
       </c>
       <c r="Y4" t="n">
-        <v>858.1169920527757</v>
+        <v>2181.778260105965</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2750.506830304106</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.041072043026</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2351809199101</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
         <v>675.2351809199101</v>
@@ -4711,16 +4713,16 @@
         <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.4915543310558</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4802,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.3660221513992</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>188.3660221513992</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>188.3660221513992</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.0144869816389</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277355</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>216.8470138298251</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5512,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5534,16 +5536,16 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978459</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E19" t="n">
-        <v>274.8772357154528</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>274.8772357154528</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>274.8772357154528</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1654045576509</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,16 +5767,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P21" t="n">
-        <v>2526.197884723913</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q21" t="n">
-        <v>2526.197884723913</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.5558870561823</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282754</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X22" t="n">
-        <v>959.9969310299522</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.204351886422</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +6001,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6071,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2273.672861378251</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.495976479601</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,34 +6241,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
         <v>1577.52840832642</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.341129796739</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868832</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456496</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>4631.766893161072</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>4448.912058815977</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>4229.310593838918</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U28" t="n">
-        <v>3940.235367183116</v>
+        <v>3966.715344640331</v>
       </c>
       <c r="V28" t="n">
-        <v>3685.550878977229</v>
+        <v>3712.030856434444</v>
       </c>
       <c r="W28" t="n">
-        <v>3396.133708940269</v>
+        <v>3422.613686397483</v>
       </c>
       <c r="X28" t="n">
-        <v>3396.133708940269</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="Y28" t="n">
-        <v>3175.341129796739</v>
+        <v>3194.624135499466</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2497.745796000625</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3044.370838283061</v>
+        <v>3192.420589669524</v>
       </c>
       <c r="C31" t="n">
-        <v>2875.434655355155</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.434655355155</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.434655355155</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>4507.978318053498</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>4218.903091397696</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="V31" t="n">
-        <v>3964.218603191809</v>
+        <v>3966.646661122955</v>
       </c>
       <c r="W31" t="n">
-        <v>3674.801433154848</v>
+        <v>3677.229491085995</v>
       </c>
       <c r="X31" t="n">
-        <v>3446.811882256831</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y31" t="n">
-        <v>3226.019303113301</v>
+        <v>3374.069054499764</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4296.276903052963</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4296.276903052963</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V34" t="n">
-        <v>4041.592414847077</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W34" t="n">
-        <v>3752.175244810116</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X34" t="n">
-        <v>3524.185693912098</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6916,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2149.810879820877</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.342122433612</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2527.96527192868</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1561.901655850193</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129205</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>3473.939263755757</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N42" t="n">
-        <v>4101.537227310363</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O42" t="n">
-        <v>4653.44695754965</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556308</v>
+        <v>776.466420735098</v>
       </c>
       <c r="E43" t="n">
-        <v>335.9629114732377</v>
+        <v>628.5533271527049</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7645,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2939.372134388645</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>2939.372134388645</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>2789.255494976309</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E46" t="n">
-        <v>2789.255494976309</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>2642.365547478399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>25.74504007796168</v>
       </c>
       <c r="G13" t="n">
-        <v>124.9899273367997</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.5330677581686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>74.66500970697058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>42.31058222398332</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>67.07129414993841</v>
       </c>
       <c r="X22" t="n">
-        <v>43.26526345294999</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.5874149221286018</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>112.2233770574207</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.899650064975823</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>34.11482774761811</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1352912260277606</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>144.1654765207632</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>74.19629618688137</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>43.72409101823359</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>126.9182872993603</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>127.2568112467075</v>
+        <v>3.116438016303789</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>4.186823682519503</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800386.7019280269</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448193</v>
@@ -26320,37 +26322,37 @@
         <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597552</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685517</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26448,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893775.1014923723</v>
+        <v>-893775.1014923728</v>
       </c>
       <c r="C6" t="n">
-        <v>434969.6442352196</v>
+        <v>434969.6442352197</v>
       </c>
       <c r="D6" t="n">
         <v>434969.6442352198</v>
       </c>
       <c r="E6" t="n">
-        <v>184786.8710516375</v>
+        <v>184786.8710516377</v>
       </c>
       <c r="F6" t="n">
-        <v>510199.3328589928</v>
+        <v>510199.3328589924</v>
       </c>
       <c r="G6" t="n">
         <v>510199.3328589927</v>
@@ -26540,13 +26542,13 @@
         <v>510199.3328589927</v>
       </c>
       <c r="I6" t="n">
-        <v>510199.3328589929</v>
+        <v>510199.3328589926</v>
       </c>
       <c r="J6" t="n">
-        <v>292668.1304617156</v>
+        <v>292668.1304617152</v>
       </c>
       <c r="K6" t="n">
-        <v>510199.3328589923</v>
+        <v>510199.3328589926</v>
       </c>
       <c r="L6" t="n">
         <v>510199.3328589928</v>
@@ -26558,7 +26560,7 @@
         <v>510199.3328589926</v>
       </c>
       <c r="O6" t="n">
-        <v>510199.3328589928</v>
+        <v>510199.3328589927</v>
       </c>
       <c r="P6" t="n">
         <v>510199.3328589927</v>
@@ -26698,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,19 +26807,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>345.2260603360148</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>94.93667516389155</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.190615095667482</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>142.1516840265499</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>92.99869925319581</v>
+        <v>256.766511719269</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.2781705049031</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>108.4486973867525</v>
       </c>
       <c r="D8" t="n">
-        <v>261.1562795319077</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.79859598454553</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>208.6224140437847</v>
       </c>
     </row>
     <row r="11">
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31838,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>538.1718564803244</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,13 +32554,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338203</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>169.2687847673337</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.8462560123214</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M33" t="n">
-        <v>361.5531172119649</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>504.288299623204</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33976,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.3312853305619</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>406.8301443969911</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36136,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394616</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>245.9177694853267</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>27.13475084531539</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.86448192629984</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M33" t="n">
-        <v>219.4190832899467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>370.3138922088737</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.34951124454038</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2466403.89928395</v>
+        <v>2462391.289269957</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>274.7944255145775</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>8.296101769923858</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.6413650862698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>92.47445699814396</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>68.8500543646704</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>256.824194384255</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744764</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.962239308310091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137272</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>119.6760079449696</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456153</v>
       </c>
     </row>
     <row r="17">
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>71.76895293959859</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>219.4517041866526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.9367233701402</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>252.069646641626</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>74.41917683133158</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>242.4603833710106</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>142.3046100066275</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>271.1749250822257</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>41.55695577161244</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,10 +4345,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2005.372840826905</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2005.372840826905</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1855.256201414569</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1855.256201414569</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916659</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2946.672497492343</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2691.988009286456</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>2402.570839249495</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2402.570839249495</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2181.778260105965</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,13 +4579,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4606,13 +4606,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>3121.906610713899</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.676548429999</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.590151828076</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2598873597757</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2257.062161108198</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6314,13 +6314,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159224</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3966.715344640331</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3712.030856434444</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3422.613686397483</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3194.624135499466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.624135499466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3192.420589669524</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328842</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122955</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085995</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3374.069054499764</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.0193492433381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1732.551602357973</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.867114152086</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1188.449944115125</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>960.4603932171079</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.6678140735778</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7374,10 +7374,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.4026036630049</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>776.466420735098</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>776.466420735098</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>628.5533271527049</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7639,34 +7639,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-3.84283301942238e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>70.88187642683964</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.74504007796168</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>165.5113759375333</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>74.66500970697058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>67.07129414993841</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5874149221286018</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.11482774761811</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.1654765207632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>43.72409101823359</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.116438016303789</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>15.00954930701846</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8770068749567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
@@ -26334,22 +26334,22 @@
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
@@ -26368,25 +26368,25 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="G4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685509</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893775.1014923728</v>
+        <v>-893775.1014923727</v>
       </c>
       <c r="C6" t="n">
-        <v>434969.6442352197</v>
+        <v>434969.6442352199</v>
       </c>
       <c r="D6" t="n">
-        <v>434969.6442352198</v>
+        <v>434969.6442352199</v>
       </c>
       <c r="E6" t="n">
-        <v>184786.8710516377</v>
+        <v>184439.4917972806</v>
       </c>
       <c r="F6" t="n">
-        <v>510199.3328589924</v>
+        <v>509851.9536046358</v>
       </c>
       <c r="G6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.953604636</v>
       </c>
       <c r="H6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="I6" t="n">
-        <v>510199.3328589926</v>
+        <v>509851.9536046355</v>
       </c>
       <c r="J6" t="n">
-        <v>292668.1304617152</v>
+        <v>292320.7512073581</v>
       </c>
       <c r="K6" t="n">
-        <v>510199.3328589926</v>
+        <v>509851.9536046356</v>
       </c>
       <c r="L6" t="n">
-        <v>510199.3328589928</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="M6" t="n">
-        <v>425144.304923481</v>
+        <v>424796.9256691238</v>
       </c>
       <c r="N6" t="n">
-        <v>510199.3328589926</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="O6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="P6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.9536046357</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>94.93667516389155</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>377.9418368861297</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.190615095667482</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>256.766511719269</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>120.9189709667715</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>108.4486973867525</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>16.14213605696548</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.6224140437847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>147.4873481937412</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338203</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>20.64972152707456</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394616</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>120.5443928316912</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2462391.289269957</v>
+        <v>2464151.819572742</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>74.32262784155991</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.296101769923858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.75688320100066</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>255.4387978729992</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699578</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>68.8500543646704</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>231.611845472491</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>58.92805047992194</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.42874471570786</v>
       </c>
       <c r="S10" t="n">
-        <v>173.6268892744764</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>77.73359659137272</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>10.58364443467423</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>200.5095474079669</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.07327741456153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>18.70843787977265</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>70.04554881124324</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>271.1749250822257</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>173.1378795275022</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>146.0535160667532</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,10 +4345,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1883.09567616829</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1661.329060737816</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,28 +4670,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1693.343189025371</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1403.92601898841</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894842</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898469</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002394</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452359</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1913.730159486768</v>
       </c>
       <c r="S10" t="n">
-        <v>1751.913851851648</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.147236421175</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U10" t="n">
-        <v>1241.044369546818</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V10" t="n">
-        <v>986.3598813409312</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770323</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491255</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072721</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5260,49 +5260,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,10 +5369,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,13 +5603,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,13 +5840,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6129,16 +6129,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>555.5643764502967</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.84283301942238e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>70.88187642683964</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>215.1260109543629</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>16.89590291932134</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.5113759375333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>75.37549921168801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>15.00954930701846</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>34.97276993489137</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.614759755</v>
@@ -26334,13 +26334,13 @@
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
@@ -26349,13 +26349,13 @@
         <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820633</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820628</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893775.1014923727</v>
+        <v>-893775.1014923728</v>
       </c>
       <c r="C6" t="n">
-        <v>434969.6442352199</v>
+        <v>434969.6442352197</v>
       </c>
       <c r="D6" t="n">
-        <v>434969.6442352199</v>
+        <v>434969.6442352193</v>
       </c>
       <c r="E6" t="n">
-        <v>184439.4917972806</v>
+        <v>184752.133126202</v>
       </c>
       <c r="F6" t="n">
-        <v>509851.9536046358</v>
+        <v>510164.5949335571</v>
       </c>
       <c r="G6" t="n">
-        <v>509851.953604636</v>
+        <v>510164.594933557</v>
       </c>
       <c r="H6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.594933557</v>
       </c>
       <c r="I6" t="n">
-        <v>509851.9536046355</v>
+        <v>510164.5949335571</v>
       </c>
       <c r="J6" t="n">
-        <v>292320.7512073581</v>
+        <v>292633.3925362793</v>
       </c>
       <c r="K6" t="n">
-        <v>509851.9536046356</v>
+        <v>510164.594933557</v>
       </c>
       <c r="L6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.594933557</v>
       </c>
       <c r="M6" t="n">
-        <v>424796.9256691238</v>
+        <v>425109.5669980451</v>
       </c>
       <c r="N6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="O6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="P6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335569</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>290.9502639294477</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.9418368861297</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>146.0121421304412</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>126.4915721992626</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>120.9189709667715</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>20.52579785133699</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>235.6797139073985</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>75.50340795433945</v>
       </c>
       <c r="S10" t="n">
-        <v>16.14213605696548</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233476</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936916</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32788,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33195,7 +33195,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013293</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103583</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
